--- a/BalanceSheet/ADM_bal.xlsx
+++ b/BalanceSheet/ADM_bal.xlsx
@@ -4175,7 +4175,7 @@
         <v>8756000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>9025000000.0</v>
+        <v>2369000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>2299000000.0</v>
@@ -4302,7 +4302,7 @@
         <v>13490000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>9877000000.0</v>
+        <v>7679000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>7646000000.0</v>
